--- a/resultados/relatorio_completo_benchmarks.xlsx
+++ b/resultados/relatorio_completo_benchmarks.xlsx
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.001281199991353787</v>
+        <v>0.001036099987686612</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.002803199997288175</v>
+        <v>0.001272499997867271</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4570490841157337</v>
+        <v>0.8142239602539336</v>
       </c>
     </row>
     <row r="4">
@@ -481,10 +481,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03292789999977686</v>
+        <v>0.02170130000740755</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0389092529849298</v>
+        <v>0.0477436829744277</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01738379999005701</v>
+        <v>0.01605109999945853</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07370080144080084</v>
+        <v>0.06455009237507484</v>
       </c>
     </row>
     <row r="6">
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.07656349999888334</v>
+        <v>0.08177109999815002</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01673382213943293</v>
+        <v>0.01267073559864123</v>
       </c>
     </row>
     <row r="7">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01879139999800827</v>
+        <v>0.02687109999533277</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06818012449788646</v>
+        <v>0.0385581531037647</v>
       </c>
     </row>
   </sheetData>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.869999247603118e-05</v>
+        <v>4.069998976774514e-05</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -577,10 +577,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.690000009257346e-05</v>
+        <v>3.360000846441835e-05</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7279520539408392</v>
+        <v>1.211308914128564</v>
       </c>
     </row>
     <row r="4">
@@ -590,10 +590,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.440000677481294e-05</v>
+        <v>3.650000144261867e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8952203384389863</v>
+        <v>1.115068168743205</v>
       </c>
     </row>
     <row r="5">
@@ -603,10 +603,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.859999509993941e-05</v>
+        <v>4.350001108832657e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8310579615744975</v>
+        <v>0.9356317101874755</v>
       </c>
     </row>
     <row r="6">
@@ -616,10 +616,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.07020239999110345</v>
+        <v>0.1265199999907054</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0006937083701155914</v>
+        <v>0.0003216881897781781</v>
       </c>
     </row>
     <row r="7">
@@ -629,10 +629,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0001050999999279156</v>
+        <v>9.99999901978299e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>0.463368149471292</v>
+        <v>0.4069999375722775</v>
       </c>
     </row>
   </sheetData>
@@ -673,7 +673,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.510000871960074e-05</v>
+        <v>3.109998942818493e-05</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -686,10 +686,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.750000127591193e-05</v>
+        <v>3.100000321865082e-05</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7843479603276838</v>
+        <v>1.003225361262994</v>
       </c>
     </row>
     <row r="4">
@@ -699,10 +699,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.319999763742089e-05</v>
+        <v>4.3099993490614e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>0.847744562452337</v>
+        <v>0.7215775899121112</v>
       </c>
     </row>
     <row r="5">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.739999712910503e-05</v>
+        <v>3.700000524986535e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9514770348352609</v>
+        <v>0.8405401355530376</v>
       </c>
     </row>
     <row r="6">
@@ -725,10 +725,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1626414000056684</v>
+        <v>0.2296479000069667</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0002772972239419293</v>
+        <v>0.0001354246628305396</v>
       </c>
     </row>
     <row r="7">
@@ -737,8 +737,12 @@
           <t>KD-Tree</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v>5.34999999217689e-05</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.5813082144609589</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
